--- a/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{985E5FCF-C685-4E2A-B82C-6019F9B00B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9C2372-A970-4393-921B-0F2ABA5C8F4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7772645-92C7-4F14-BC02-9530E5A7D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DF086C7-8323-426F-A6C5-57C6F630FEB4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>~UC_T</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>GSL</t>
+  </si>
+  <si>
+    <t>AF_H2_Cons_IMP</t>
+  </si>
+  <si>
+    <t>IMPH2, IMPH2G</t>
+  </si>
+  <si>
+    <t>H2, H2G</t>
+  </si>
+  <si>
+    <t>AF_H2O_Cons_IMP</t>
+  </si>
+  <si>
+    <t>IMPH2O, IMPH2GO</t>
+  </si>
+  <si>
+    <t>IMPH2F, IMPH2GF</t>
+  </si>
+  <si>
+    <t>AF_H2F_Cons_IMP</t>
   </si>
 </sst>
 </file>
@@ -693,16 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FCDB6-CD4D-4B81-B828-3F62C3FE02DE}">
-  <dimension ref="C6:K42"/>
+  <dimension ref="C6:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
@@ -1097,50 +1118,54 @@
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>14</v>
+      </c>
       <c r="J30" s="15"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="14">
-        <v>718</v>
-      </c>
-      <c r="I31" s="1">
-        <v>14</v>
-      </c>
-      <c r="J31" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="F32" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G32" s="16"/>
       <c r="H32" s="14">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1150,24 +1175,26 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="16">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="17"/>
+      <c r="J33" s="15">
+        <v>300</v>
+      </c>
+      <c r="K33" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F34" s="1">
         <v>2010</v>
@@ -1176,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
         <v>14</v>
@@ -1193,7 +1220,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1207,116 +1234,293 @@
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16">
+        <v>2025</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="J37" s="15">
+        <v>150</v>
+      </c>
+      <c r="K37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1">
         <v>2010</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="14">
-        <v>212</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>14</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="14">
-        <v>187</v>
-      </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G39" s="16"/>
+      <c r="F39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="14">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G40" s="16"/>
       <c r="H40" s="14">
-        <v>212</v>
-      </c>
-      <c r="I40" s="1">
-        <v>14</v>
-      </c>
-      <c r="J40" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="14">
-        <v>187</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="F41" s="16">
+        <v>2025</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="J41" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="16">
-        <v>2019</v>
-      </c>
+      <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="14">
-        <v>204</v>
-      </c>
+      <c r="H42" s="18"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14">
+        <v>718</v>
+      </c>
+      <c r="I43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="14">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="14">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14">
+        <v>212</v>
+      </c>
+      <c r="I49" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="14">
+        <v>212</v>
+      </c>
+      <c r="I52" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="14">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\SuppXLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7772645-92C7-4F14-BC02-9530E5A7D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DF086C7-8323-426F-A6C5-57C6F630FEB4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>~UC_T</t>
   </si>
@@ -152,16 +146,46 @@
   </si>
   <si>
     <t>AF_H2F_Cons_IMP</t>
+  </si>
+  <si>
+    <t>AF_COA_Cons_IMP</t>
+  </si>
+  <si>
+    <t>IMPCOA</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>AF_CRD_Cons_IMP</t>
+  </si>
+  <si>
+    <t>IMPCRD</t>
+  </si>
+  <si>
+    <t>AF_GSL_Cons_IMP</t>
+  </si>
+  <si>
+    <t>AF_DSL_Cons_IMP</t>
+  </si>
+  <si>
+    <t>IMPGSL</t>
+  </si>
+  <si>
+    <t>IMPDSL</t>
+  </si>
+  <si>
+    <t>DSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,14 +282,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,14 +407,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Input 2" xfId="4" xr:uid="{6DB6194B-422D-4AE4-A6D0-D78AAD055A8B}"/>
+    <cellStyle name="Input 2" xfId="4"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{1CEE3280-44D2-42F6-8916-525F4970A9A3}"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="3" xr:uid="{10D62639-F0D4-4EB9-8AF9-632F687C5C5A}"/>
+    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,27 +718,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FCDB6-CD4D-4B81-B828-3F62C3FE02DE}">
-  <dimension ref="C6:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -739,7 +751,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -750,7 +762,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -761,7 +773,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
@@ -772,7 +784,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
@@ -785,7 +797,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="3:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:11" ht="29.1" x14ac:dyDescent="0.35">
       <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
@@ -827,7 +839,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
@@ -842,7 +854,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -867,7 +879,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -881,7 +893,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -895,7 +907,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="3:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -908,618 +920,718 @@
         <f>$H$16</f>
         <v>3168</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16">
+        <v>2035</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>2010</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>41</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>14</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="14">
-        <v>33</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G20" s="16"/>
+      <c r="F20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="14">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14">
+        <v>53</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="16">
         <v>2025</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14">
-        <v>465</v>
-      </c>
-      <c r="I22" s="1">
-        <v>14</v>
-      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="J22" s="15"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>2010</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="14">
-        <v>265</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="I23" s="1">
+        <v>14</v>
+      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G24" s="16"/>
+      <c r="F24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="14">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="14">
+        <v>183</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16">
         <v>2025</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="J25" s="15">
-        <f>$H$24</f>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="J26" s="15">
+        <f>$H$25</f>
         <v>183</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>2010</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>106</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>14</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="14">
-        <v>103</v>
-      </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="14">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14">
+        <v>82</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16">
         <v>2025</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="J29" s="15">
-        <f>$H$28</f>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="J30" s="15">
+        <f>$H$29</f>
         <v>82</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>2010</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="14">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>14</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="14">
         <v>0</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="I31" s="1">
+        <v>14</v>
+      </c>
+      <c r="J31" s="15"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G32" s="16"/>
+      <c r="F32" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="14">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16">
         <v>2025</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="J33" s="15">
-        <v>300</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="J34" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K34" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>2010</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>14</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G35" s="1"/>
       <c r="H35" s="14">
         <v>0</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1">
+        <v>14</v>
+      </c>
+      <c r="J35" s="15"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G36" s="16"/>
+      <c r="F36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="16">
         <v>2025</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="J37" s="15">
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="J38" s="15">
         <v>150</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K38" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>2010</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>14</v>
-      </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G39" s="1"/>
       <c r="H39" s="14">
         <v>0</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="I39" s="1">
+        <v>14</v>
+      </c>
+      <c r="J39" s="15"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="16">
-        <v>2019</v>
-      </c>
-      <c r="G40" s="16"/>
+      <c r="F40" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="16">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="J41" s="15">
-        <v>100000</v>
-      </c>
-      <c r="K41" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="16">
+        <v>2025</v>
+      </c>
       <c r="G42" s="16"/>
-      <c r="H42" s="18"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="1" t="s">
+      <c r="H42" s="17"/>
+      <c r="J42" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>2010</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>718</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I44" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="14">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="16">
+      <c r="F45" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="14">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16">
         <v>2019</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="14">
+      <c r="G46" s="16"/>
+      <c r="H46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C46" s="1" t="s">
+    <row r="47" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>2010</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>30</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I47" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="16">
+      <c r="F48" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16">
         <v>2019</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="14">
+      <c r="G49" s="16"/>
+      <c r="H49" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>2010</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>212</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I50" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="14">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="16">
+      <c r="F51" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16">
         <v>2019</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="14">
+      <c r="G52" s="16"/>
+      <c r="H52" s="14">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>2010</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>212</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I53" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="14">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="16">
+      <c r="F54" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16">
         <v>2019</v>
       </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="14">
+      <c r="G55" s="16"/>
+      <c r="H55" s="14">
         <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IMP_MIN_totalconstraint.xlsx
@@ -718,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:K58"/>
+  <dimension ref="C6:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,30 +1350,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2035</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>15</v>
-      </c>
-    </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>25</v>
@@ -1634,6 +1610,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
